--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H2">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I2">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J2">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N2">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O2">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P2">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q2">
-        <v>33.702703283854</v>
+        <v>62.7421242192511</v>
       </c>
       <c r="R2">
-        <v>303.324329554686</v>
+        <v>564.67911797326</v>
       </c>
       <c r="S2">
-        <v>0.002861969190515401</v>
+        <v>0.00365344142317426</v>
       </c>
       <c r="T2">
-        <v>0.002861969190515401</v>
+        <v>0.00365344142317426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H3">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I3">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J3">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.233244</v>
       </c>
       <c r="O3">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P3">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q3">
-        <v>20.86544233630266</v>
+        <v>19.74054932779066</v>
       </c>
       <c r="R3">
-        <v>187.788981026724</v>
+        <v>177.664943950116</v>
       </c>
       <c r="S3">
-        <v>0.001771853510088678</v>
+        <v>0.001149481971288381</v>
       </c>
       <c r="T3">
-        <v>0.001771853510088678</v>
+        <v>0.001149481971288381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H4">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I4">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J4">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N4">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q4">
-        <v>14.04835909924333</v>
+        <v>11.41428063387667</v>
       </c>
       <c r="R4">
-        <v>126.43523189319</v>
+        <v>102.72852570489</v>
       </c>
       <c r="S4">
-        <v>0.001192959822264247</v>
+        <v>0.0006646476542269439</v>
       </c>
       <c r="T4">
-        <v>0.001192959822264247</v>
+        <v>0.0006646476542269438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H5">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I5">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J5">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N5">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q5">
-        <v>0.6753168685327777</v>
+        <v>0.3393982627301111</v>
       </c>
       <c r="R5">
-        <v>6.077851816795</v>
+        <v>3.054584364571</v>
       </c>
       <c r="S5">
-        <v>5.734661861685344E-05</v>
+        <v>1.976298519442077E-05</v>
       </c>
       <c r="T5">
-        <v>5.734661861685344E-05</v>
+        <v>1.976298519442077E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I6">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J6">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N6">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O6">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P6">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q6">
-        <v>5504.210135627298</v>
+        <v>10830.73298804669</v>
       </c>
       <c r="R6">
-        <v>49537.89122064568</v>
+        <v>97476.59689242017</v>
       </c>
       <c r="S6">
-        <v>0.4674070116457001</v>
+        <v>0.6306679768060617</v>
       </c>
       <c r="T6">
-        <v>0.4674070116457002</v>
+        <v>0.6306679768060616</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I7">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J7">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.233244</v>
       </c>
       <c r="O7">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P7">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q7">
         <v>3407.672619746332</v>
@@ -883,10 +883,10 @@
         <v>30669.05357771699</v>
       </c>
       <c r="S7">
-        <v>0.2893730501953273</v>
+        <v>0.1984270131194898</v>
       </c>
       <c r="T7">
-        <v>0.2893730501953273</v>
+        <v>0.1984270131194898</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I8">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J8">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N8">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O8">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P8">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q8">
-        <v>2294.32992041417</v>
+        <v>1970.36723468503</v>
       </c>
       <c r="R8">
-        <v>20648.96928372753</v>
+        <v>17733.30511216527</v>
       </c>
       <c r="S8">
-        <v>0.1948301146587471</v>
+        <v>0.1147334643772686</v>
       </c>
       <c r="T8">
-        <v>0.1948301146587471</v>
+        <v>0.1147334643772686</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I9">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J9">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N9">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O9">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P9">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q9">
-        <v>110.2904393523517</v>
+        <v>58.58794240678367</v>
       </c>
       <c r="R9">
-        <v>992.613954171165</v>
+        <v>527.291481661053</v>
       </c>
       <c r="S9">
-        <v>0.009365653454453182</v>
+        <v>0.003411545566093781</v>
       </c>
       <c r="T9">
-        <v>0.009365653454453183</v>
+        <v>0.00341154556609378</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H10">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I10">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J10">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N10">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O10">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P10">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q10">
-        <v>186.238451709292</v>
+        <v>533.1757006007889</v>
       </c>
       <c r="R10">
-        <v>1676.146065383628</v>
+        <v>4798.5813054071</v>
       </c>
       <c r="S10">
-        <v>0.01581501360268133</v>
+        <v>0.03104654511852181</v>
       </c>
       <c r="T10">
-        <v>0.01581501360268134</v>
+        <v>0.03104654511852181</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H11">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I11">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J11">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.233244</v>
       </c>
       <c r="O11">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P11">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q11">
-        <v>115.3007710453947</v>
+        <v>167.7530263608733</v>
       </c>
       <c r="R11">
-        <v>1037.706939408552</v>
+        <v>1509.77723724786</v>
       </c>
       <c r="S11">
-        <v>0.009791121252065176</v>
+        <v>0.009768171909959182</v>
       </c>
       <c r="T11">
-        <v>0.009791121252065178</v>
+        <v>0.00976817190995918</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H12">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I12">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J12">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N12">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O12">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P12">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q12">
-        <v>77.63011250651334</v>
+        <v>96.99730682618335</v>
       </c>
       <c r="R12">
-        <v>698.6710125586201</v>
+        <v>872.97576143565</v>
       </c>
       <c r="S12">
-        <v>0.006592200880109316</v>
+        <v>0.005648102978738317</v>
       </c>
       <c r="T12">
-        <v>0.006592200880109316</v>
+        <v>0.005648102978738316</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H13">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I13">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J13">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N13">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O13">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P13">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q13">
-        <v>3.731747182101111</v>
+        <v>2.884169268503889</v>
       </c>
       <c r="R13">
-        <v>33.58572463891</v>
+        <v>25.957523416535</v>
       </c>
       <c r="S13">
-        <v>0.0003168928430462905</v>
+        <v>0.0001679436838984998</v>
       </c>
       <c r="T13">
-        <v>0.0003168928430462905</v>
+        <v>0.0001679436838984997</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H14">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I14">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J14">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N14">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O14">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P14">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q14">
-        <v>3.578756335544</v>
+        <v>7.339505896759999</v>
       </c>
       <c r="R14">
-        <v>32.208807019896</v>
+        <v>66.05555307083999</v>
       </c>
       <c r="S14">
-        <v>0.0003039011525700228</v>
+        <v>0.0004273756300496322</v>
       </c>
       <c r="T14">
-        <v>0.0003039011525700228</v>
+        <v>0.0004273756300496321</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H15">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I15">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J15">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.233244</v>
       </c>
       <c r="O15">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P15">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q15">
-        <v>2.215618531429333</v>
+        <v>2.309228130216</v>
       </c>
       <c r="R15">
-        <v>19.940566782864</v>
+        <v>20.783053171944</v>
       </c>
       <c r="S15">
-        <v>0.0001881460938453426</v>
+        <v>0.00013446515895778</v>
       </c>
       <c r="T15">
-        <v>0.0001881460938453426</v>
+        <v>0.00013446515895778</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H16">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I16">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J16">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N16">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O16">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P16">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q16">
-        <v>1.491739511426667</v>
+        <v>1.33523021514</v>
       </c>
       <c r="R16">
-        <v>13.42565560284</v>
+        <v>12.01707193626</v>
       </c>
       <c r="S16">
-        <v>0.0001266756700796438</v>
+        <v>7.774976442333438E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001266756700796438</v>
+        <v>7.774976442333437E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H17">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I17">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J17">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N17">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O17">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P17">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q17">
-        <v>0.07170921873555554</v>
+        <v>0.039702442046</v>
       </c>
       <c r="R17">
-        <v>0.64538296862</v>
+        <v>0.357321978414</v>
       </c>
       <c r="S17">
-        <v>6.089409890019397E-06</v>
+        <v>2.311852653651885E-06</v>
       </c>
       <c r="T17">
-        <v>6.089409890019397E-06</v>
+        <v>2.311852653651884E-06</v>
       </c>
     </row>
   </sheetData>
